--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,11 +802,11 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,11 +849,11 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -970,29 +1009,35 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1097,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1058,37 +1111,43 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1099,37 +1158,43 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1172,22 +1239,28 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,17 +1271,17 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1247,29 +1326,35 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1280,37 +1365,43 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1488,14 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1403,37 +1506,43 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1444,37 +1553,43 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1523,28 +1644,28 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-700</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1664,22 +1803,28 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1690,37 +1835,43 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1000</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1911,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1772,83 +1929,95 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1000</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1896,14 +2069,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1914,16 +2087,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,25 +2189,31 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2030,11 +2221,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2045,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2054,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2063,13 +2260,13 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2077,58 +2274,70 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2424,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2226,15 +2447,15 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2352,11 +2591,11 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2367,14 +2606,20 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,32 +2748,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2530,49 +2791,61 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2580,81 +2853,93 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2671,14 +2956,14 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2686,16 +2971,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2711,32 +3002,38 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1200</v>
       </c>
       <c r="M66" s="3">
         <v>1200</v>
       </c>
       <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1200</v>
       </c>
       <c r="L76" s="3">
         <v>-1100</v>
       </c>
       <c r="M76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3703,66 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3384,37 +3773,43 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1000</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +4103,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3691,34 +4124,40 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4094,34 +4585,40 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4658,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4179,27 +4682,33 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +815,8 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +865,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,29 +1035,32 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>2800</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-100</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
       <c r="N14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,11 +1279,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1259,31 +1293,34 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>-300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1332,76 +1372,82 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,13 +1693,16 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1650,25 +1711,25 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-700</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1809,11 +1879,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2075,11 +2162,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2093,16 +2180,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2209,14 +2305,14 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2227,8 +2323,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2257,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2280,8 +2379,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2301,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2310,13 +2412,13 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2325,19 +2427,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2453,12 +2564,12 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,34 +2688,37 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2612,14 +2732,17 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -2686,14 +2812,14 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2701,19 +2827,22 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2762,22 +2893,22 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>200</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2797,46 +2928,49 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
       </c>
       <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
       <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -2844,13 +2978,16 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
@@ -2859,7 +2996,7 @@
         <v>800</v>
       </c>
       <c r="G59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -2868,22 +3005,22 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -2891,46 +3028,49 @@
       <c r="Q59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1900</v>
       </c>
       <c r="G60" s="3">
         <v>1900</v>
       </c>
       <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
       </c>
       <c r="P60" s="3">
         <v>700</v>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2962,11 +3105,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2977,16 +3120,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3008,32 +3154,35 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
-      </c>
-      <c r="P62" s="3">
-        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,40 +3328,43 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1900</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
       </c>
       <c r="H66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1200</v>
@@ -3215,13 +3373,16 @@
         <v>1200</v>
       </c>
       <c r="P66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-7500</v>
       </c>
       <c r="M72" s="3">
         <v>-7500</v>
       </c>
       <c r="N72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1100</v>
       </c>
       <c r="O76" s="3">
         <v>-1100</v>
       </c>
       <c r="P76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,13 +4323,16 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4130,34 +4347,37 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,13 +4813,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -4591,14 +4837,14 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4606,19 +4852,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4688,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4700,15 +4952,18 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +878,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,13 +1026,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1038,29 +1058,32 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>2800</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-100</v>
       </c>
       <c r="N14" s="3">
         <v>-100</v>
       </c>
       <c r="O14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,49 +1162,52 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1282,11 +1316,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,23 +1344,23 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>-300</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1375,29 +1415,32 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,49 +1448,52 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,49 +1607,52 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,49 +1660,52 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1705,7 +1766,7 @@
         <v>-100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1714,25 +1775,25 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-700</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1882,11 +1952,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1896,8 +1966,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,49 +1978,52 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,104 +2084,110 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2165,11 +2252,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2183,16 +2270,19 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2308,14 +2404,14 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2326,8 +2422,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2359,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2382,8 +2481,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2406,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2415,13 +2517,13 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2430,19 +2532,22 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,38 +2649,41 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,11 +2837,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2735,14 +2855,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2806,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -2815,14 +2941,14 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2830,19 +2956,22 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,13 +3011,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -2896,22 +3027,22 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>200</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -2931,49 +3062,52 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
       </c>
       <c r="G58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -2981,16 +3115,19 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
@@ -2999,7 +3136,7 @@
         <v>800</v>
       </c>
       <c r="H59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -3008,22 +3145,22 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
@@ -3031,49 +3168,52 @@
       <c r="R59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
       </c>
       <c r="H60" s="3">
         <v>1900</v>
       </c>
       <c r="I60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
-      </c>
-      <c r="P60" s="3">
-        <v>700</v>
       </c>
       <c r="Q60" s="3">
         <v>700</v>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3108,11 +3251,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3123,66 +3266,72 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,43 +3486,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1900</v>
       </c>
       <c r="H66" s="3">
         <v>1900</v>
       </c>
       <c r="I66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1200</v>
       </c>
       <c r="O66" s="3">
         <v>1200</v>
@@ -3376,13 +3534,16 @@
         <v>1200</v>
       </c>
       <c r="Q66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7500</v>
       </c>
       <c r="N72" s="3">
         <v>-7500</v>
       </c>
       <c r="O72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1100</v>
       </c>
       <c r="P76" s="3">
         <v>-1100</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,49 +4160,52 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,16 +4540,19 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4350,34 +4567,37 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,16 +5059,19 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -4840,14 +5086,14 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4855,19 +5101,22 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4943,11 +5195,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4955,15 +5207,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,11 +841,11 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -849,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,11 +900,11 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,20 +1062,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1061,29 +1100,35 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,19 +1204,21 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1177,37 +1230,43 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1230,37 +1289,43 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,22 +1386,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,8 +1417,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>-200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1353,21 +1426,21 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,16 +1459,22 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1418,40 +1497,46 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1463,37 +1548,43 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,19 +1695,25 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1622,48 +1725,54 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1675,37 +1784,43 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,49 +1872,55 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1955,36 +2094,42 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1993,37 +2138,43 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1000</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,22 +2226,28 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2099,95 +2256,107 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1000</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2255,14 +2428,14 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2273,16 +2446,22 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2407,17 +2598,17 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2425,11 +2616,11 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2440,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2461,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2470,13 +2667,13 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2484,17 +2681,23 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2511,43 +2714,49 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2652,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2678,18 +2899,18 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2840,14 +3079,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2858,14 +3097,20 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3162,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2935,43 +3186,49 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3021,35 +3282,35 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3065,167 +3326,191 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>600</v>
+      </c>
+      <c r="U59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>700</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>700</v>
+      </c>
+      <c r="U60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3254,14 +3539,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3269,16 +3554,22 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3303,35 +3594,41 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>300</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
       <c r="S62" s="3">
+        <v>300</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1200</v>
       </c>
       <c r="Q66" s="3">
         <v>1200</v>
       </c>
       <c r="R66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1200</v>
       </c>
       <c r="P76" s="3">
         <v>-1100</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,80 +4470,92 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -4175,37 +4564,43 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1000</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,22 +4970,28 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4570,34 +5003,40 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,22 +5547,28 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5089,34 +5580,40 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5198,27 +5701,33 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,13 +813,16 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -847,8 +854,8 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,8 +916,8 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,23 +1085,26 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1106,29 +1126,32 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>2800</v>
-      </c>
-      <c r="P14" s="3">
-        <v>-100</v>
       </c>
       <c r="Q14" s="3">
         <v>-100</v>
       </c>
       <c r="R14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1218,55 +1245,58 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,55 +1307,58 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,12 +1454,12 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1432,17 +1469,17 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>-300</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,8 +1516,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1503,29 +1543,32 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1536,55 +1579,58 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1890,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>-100</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1905,25 +1966,25 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2100,11 +2170,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2434,11 +2521,11 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2452,16 +2539,19 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,40 +2671,43 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2622,8 +2718,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2664,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2687,8 +2786,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2720,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2729,13 +2831,13 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2744,19 +2846,22 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2905,15 +3016,15 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3085,11 +3205,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3103,14 +3223,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3192,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -3201,14 +3327,14 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3216,19 +3342,22 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3288,7 +3419,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3297,22 +3428,22 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>200</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,49 +3475,49 @@
         <v>1800</v>
       </c>
       <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
       </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3400,16 +3537,16 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
@@ -3418,7 +3555,7 @@
         <v>800</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
@@ -3427,22 +3564,22 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
       </c>
       <c r="S59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
@@ -3450,58 +3587,61 @@
       <c r="U59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2800</v>
       </c>
       <c r="F60" s="3">
         <v>2800</v>
       </c>
       <c r="G60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1900</v>
       </c>
       <c r="K60" s="3">
         <v>1900</v>
       </c>
       <c r="L60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>700</v>
       </c>
       <c r="T60" s="3">
         <v>700</v>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3545,11 +3688,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3560,16 +3703,19 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
-      </c>
-      <c r="T61" s="3">
-        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3600,35 +3746,38 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>300</v>
-      </c>
-      <c r="T62" s="3">
-        <v>200</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,52 +3959,55 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2800</v>
       </c>
       <c r="F66" s="3">
         <v>2800</v>
       </c>
       <c r="G66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1900</v>
       </c>
       <c r="K66" s="3">
         <v>1900</v>
       </c>
       <c r="L66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1200</v>
       </c>
       <c r="R66" s="3">
         <v>1200</v>
@@ -3858,13 +4016,16 @@
         <v>1200</v>
       </c>
       <c r="T66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-7500</v>
       </c>
       <c r="Q72" s="3">
         <v>-7500</v>
       </c>
       <c r="R72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-6600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,58 +4553,61 @@
         <v>-2900</v>
       </c>
       <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1100</v>
       </c>
       <c r="S76" s="3">
         <v>-1100</v>
       </c>
       <c r="T76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,25 +5190,28 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -5009,34 +5226,37 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,25 +5796,28 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -5586,14 +5832,14 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5601,19 +5847,22 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5707,11 +5959,11 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5719,15 +5971,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,13 +820,16 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -857,8 +864,8 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,8 +929,8 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,26 +1105,29 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1129,29 +1149,32 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>-100</v>
       </c>
       <c r="R14" s="3">
         <v>-100</v>
       </c>
       <c r="S14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1259,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1248,55 +1275,58 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,55 +1340,58 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1429,11 +1463,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1477,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1457,12 +1494,12 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1472,17 +1509,17 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>-300</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,11 +1559,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1546,29 +1586,32 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1582,55 +1625,58 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,13 +1802,16 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1768,60 +1820,63 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1830,55 +1885,58 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1954,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>-100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1969,25 +2030,25 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2173,11 +2243,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2187,13 +2257,16 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2202,55 +2275,58 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,13 +2387,16 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2326,122 +2405,128 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2524,11 +2611,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2542,16 +2629,19 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2700,17 +2796,17 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2721,8 +2817,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2766,19 +2865,19 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2789,8 +2888,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2825,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2834,13 +2936,13 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2849,19 +2951,22 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3019,15 +3130,15 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3208,11 +3328,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3226,14 +3346,17 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3417,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3321,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -3330,14 +3456,14 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3345,19 +3471,22 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3422,7 +3553,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3431,22 +3562,22 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>200</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3478,49 +3612,49 @@
         <v>1800</v>
       </c>
       <c r="F58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1100</v>
       </c>
       <c r="J58" s="3">
         <v>1100</v>
       </c>
       <c r="K58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
@@ -3528,28 +3662,31 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
       </c>
       <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
@@ -3558,7 +3695,7 @@
         <v>800</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
@@ -3567,22 +3704,22 @@
         <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
       </c>
       <c r="T59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="U59" s="3">
         <v>600</v>
@@ -3590,61 +3727,64 @@
       <c r="V59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2800</v>
       </c>
       <c r="G60" s="3">
         <v>2800</v>
       </c>
       <c r="H60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1900</v>
       </c>
       <c r="L60" s="3">
         <v>1900</v>
       </c>
       <c r="M60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>700</v>
       </c>
       <c r="U60" s="3">
         <v>700</v>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3691,11 +3834,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3706,16 +3849,19 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
-      </c>
-      <c r="U61" s="3">
-        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3749,35 +3895,38 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
       <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>300</v>
-      </c>
-      <c r="U62" s="3">
-        <v>200</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,55 +4117,58 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>3100</v>
       </c>
       <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2800</v>
       </c>
       <c r="G66" s="3">
         <v>2800</v>
       </c>
       <c r="H66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1900</v>
       </c>
       <c r="L66" s="3">
         <v>1900</v>
       </c>
       <c r="M66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1200</v>
       </c>
       <c r="S66" s="3">
         <v>1200</v>
@@ -4019,13 +4177,16 @@
         <v>1200</v>
       </c>
       <c r="U66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-7500</v>
       </c>
       <c r="R72" s="3">
         <v>-7500</v>
       </c>
       <c r="S72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-6600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E76" s="3">
         <v>-2900</v>
       </c>
       <c r="F76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1100</v>
       </c>
       <c r="T76" s="3">
         <v>-1100</v>
       </c>
       <c r="U76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,80 +4857,86 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -4750,55 +4945,58 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,28 +5407,31 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -5229,34 +5446,37 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5808,19 +6054,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -5835,14 +6081,14 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5850,19 +6096,22 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5962,11 +6214,11 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5974,15 +6226,18 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +873,8 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,8 +941,8 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,29 +1124,32 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1152,29 +1171,32 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>2800</v>
-      </c>
-      <c r="R14" s="3">
-        <v>-100</v>
       </c>
       <c r="S14" s="3">
         <v>-100</v>
       </c>
       <c r="T14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1278,55 +1304,58 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,55 +1372,58 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1466,11 +1499,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1480,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,12 +1533,12 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1512,17 +1548,17 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3">
+        <v>-300</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,8 +1604,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1589,29 +1628,32 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,55 +1670,58 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1823,55 +1874,58 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1888,55 +1942,58 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,13 +2057,16 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2018,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2033,25 +2093,25 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2246,11 +2315,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2260,13 +2329,16 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2278,55 +2350,58 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,13 +2465,16 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2408,125 +2486,131 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2614,11 +2700,11 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2632,16 +2718,19 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2799,17 +2894,17 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2820,8 +2915,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2868,19 +2966,19 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2891,8 +2989,8 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
@@ -2900,8 +2998,11 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2930,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -2939,13 +3040,13 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2954,19 +3055,22 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3133,15 +3243,15 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3331,11 +3450,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3349,14 +3468,17 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3450,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3459,14 +3584,14 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3474,19 +3599,22 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3556,7 +3686,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3565,22 +3695,22 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>200</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3600,13 +3730,16 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
         <v>1800</v>
@@ -3615,49 +3748,49 @@
         <v>1800</v>
       </c>
       <c r="G58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1100</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
       </c>
       <c r="L58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
@@ -3665,8 +3798,11 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3674,22 +3810,22 @@
         <v>1100</v>
       </c>
       <c r="E59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="3">
         <v>1000</v>
       </c>
       <c r="G59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
@@ -3698,7 +3834,7 @@
         <v>800</v>
       </c>
       <c r="M59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
@@ -3707,22 +3843,22 @@
         <v>600</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>800</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
       </c>
       <c r="U59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="V59" s="3">
         <v>600</v>
@@ -3730,8 +3866,11 @@
       <c r="W59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3739,55 +3878,55 @@
         <v>3100</v>
       </c>
       <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2800</v>
       </c>
       <c r="H60" s="3">
         <v>2800</v>
       </c>
       <c r="I60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1900</v>
       </c>
       <c r="M60" s="3">
         <v>1900</v>
       </c>
       <c r="N60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>700</v>
       </c>
       <c r="V60" s="3">
         <v>700</v>
@@ -3795,8 +3934,11 @@
       <c r="W60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3837,11 +3979,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3852,16 +3994,19 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>200</v>
-      </c>
-      <c r="V61" s="3">
-        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3898,35 +4043,38 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
       <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>300</v>
-      </c>
-      <c r="V62" s="3">
-        <v>200</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4129,49 +4286,49 @@
         <v>3100</v>
       </c>
       <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2800</v>
       </c>
       <c r="H66" s="3">
         <v>2800</v>
       </c>
       <c r="I66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1900</v>
       </c>
       <c r="M66" s="3">
         <v>1900</v>
       </c>
       <c r="N66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1200</v>
       </c>
       <c r="T66" s="3">
         <v>1200</v>
@@ -4180,13 +4337,16 @@
         <v>1200</v>
       </c>
       <c r="V66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4479,64 +4652,67 @@
         <v>-3400</v>
       </c>
       <c r="E72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-7500</v>
       </c>
       <c r="S72" s="3">
         <v>-7500</v>
       </c>
       <c r="T72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="U72" s="3">
         <v>-6600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4739,64 +4924,67 @@
         <v>-3000</v>
       </c>
       <c r="E76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F76" s="3">
         <v>-2900</v>
       </c>
       <c r="G76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
       </c>
       <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1100</v>
       </c>
       <c r="U76" s="3">
         <v>-1100</v>
       </c>
       <c r="V76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,83 +5048,89 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -4948,55 +5142,58 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5422,19 +5638,19 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -5449,34 +5665,37 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6057,19 +6302,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -6084,14 +6329,14 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6099,19 +6344,22 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6217,11 +6468,11 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6229,15 +6480,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,8 +883,8 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,8 +954,8 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,32 +1144,35 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1174,29 +1194,32 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>2800</v>
-      </c>
-      <c r="S14" s="3">
-        <v>-100</v>
       </c>
       <c r="T14" s="3">
         <v>-100</v>
       </c>
       <c r="U14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1312,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1307,55 +1334,58 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1375,55 +1405,58 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1502,11 +1536,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,12 +1573,12 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1551,17 +1588,17 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>-300</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,8 +1647,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1631,34 +1671,37 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1673,55 +1716,58 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1905,16 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1877,60 +1929,63 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1945,55 +2000,58 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2069,7 +2130,7 @@
         <v>100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2081,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>-100</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2096,25 +2157,25 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-700</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2318,11 +2388,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2332,8 +2402,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2353,55 +2426,58 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2489,128 +2568,134 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2703,11 +2790,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2721,16 +2808,19 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2897,17 +2993,17 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2918,8 +3014,8 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2969,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2992,8 +3091,8 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3001,13 +3100,16 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3034,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -3043,13 +3145,13 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3058,19 +3160,22 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3246,15 +3357,15 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3453,11 +3573,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3471,14 +3591,17 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,13 +3668,16 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3578,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -3587,14 +3713,14 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3602,19 +3728,22 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3689,7 +3820,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3698,22 +3829,22 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>200</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,7 +3876,7 @@
         <v>1900</v>
       </c>
       <c r="E58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F58" s="3">
         <v>1800</v>
@@ -3751,49 +3885,49 @@
         <v>1800</v>
       </c>
       <c r="H58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1100</v>
       </c>
       <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,22 +3950,22 @@
         <v>1100</v>
       </c>
       <c r="F59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G59" s="3">
         <v>1000</v>
       </c>
       <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
@@ -3837,7 +3974,7 @@
         <v>800</v>
       </c>
       <c r="N59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
@@ -3846,22 +3983,22 @@
         <v>600</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
-      </c>
-      <c r="T59" s="3">
-        <v>800</v>
       </c>
       <c r="U59" s="3">
         <v>800</v>
       </c>
       <c r="V59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
@@ -3869,67 +4006,70 @@
       <c r="X59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E60" s="3">
         <v>3100</v>
       </c>
       <c r="F60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2800</v>
       </c>
       <c r="I60" s="3">
         <v>2800</v>
       </c>
       <c r="J60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1900</v>
       </c>
       <c r="N60" s="3">
         <v>1900</v>
       </c>
       <c r="O60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>700</v>
       </c>
       <c r="W60" s="3">
         <v>700</v>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3982,11 +4125,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3997,16 +4140,19 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>200</v>
-      </c>
-      <c r="W61" s="3">
-        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4046,35 +4192,38 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
       </c>
       <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3">
         <v>200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>300</v>
-      </c>
-      <c r="W62" s="3">
-        <v>200</v>
       </c>
       <c r="X62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,61 +4432,64 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E66" s="3">
         <v>3100</v>
       </c>
       <c r="F66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2800</v>
       </c>
       <c r="I66" s="3">
         <v>2800</v>
       </c>
       <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1900</v>
       </c>
       <c r="N66" s="3">
         <v>1900</v>
       </c>
       <c r="O66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1200</v>
       </c>
       <c r="U66" s="3">
         <v>1200</v>
@@ -4340,13 +4498,16 @@
         <v>1200</v>
       </c>
       <c r="W66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E72" s="3">
         <v>-3400</v>
       </c>
       <c r="F72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-7500</v>
       </c>
       <c r="T72" s="3">
         <v>-7500</v>
       </c>
       <c r="U72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="V72" s="3">
         <v>-6600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4927,64 +5113,67 @@
         <v>-3000</v>
       </c>
       <c r="F76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="G76" s="3">
         <v>-2900</v>
       </c>
       <c r="H76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
       </c>
       <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1100</v>
       </c>
       <c r="V76" s="3">
         <v>-1100</v>
       </c>
       <c r="W76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X76" s="3">
         <v>-800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -5145,55 +5340,58 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5641,19 +5858,19 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -5668,34 +5885,37 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6305,19 +6551,19 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -6332,14 +6578,14 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6347,19 +6593,22 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6471,11 +6723,11 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6483,15 +6735,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,8 +893,8 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,8 +967,8 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,35 +1164,38 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1197,29 +1217,32 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>2800</v>
-      </c>
-      <c r="T14" s="3">
-        <v>-100</v>
       </c>
       <c r="U14" s="3">
         <v>-100</v>
       </c>
       <c r="V14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,16 +1339,17 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1337,55 +1364,58 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1408,55 +1438,58 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1539,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1553,16 +1587,19 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1576,12 +1613,12 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1591,17 +1628,17 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3">
+        <v>-300</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,8 +1690,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1674,37 +1714,40 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1719,55 +1762,58 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,16 +1957,19 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1932,63 +1984,66 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -2003,55 +2058,58 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,19 +2179,22 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>100</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2145,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2160,25 +2221,25 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2391,11 +2461,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2405,19 +2475,22 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -2429,55 +2502,58 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,19 +2623,22 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -2571,131 +2650,137 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2793,11 +2880,11 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2811,16 +2898,19 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2996,17 +3092,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -3017,8 +3113,8 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3071,19 +3170,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3094,8 +3193,8 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3214,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3139,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -3148,13 +3250,13 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -3163,19 +3265,22 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3360,15 +3471,15 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3576,11 +3696,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3594,14 +3714,17 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,7 +3806,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3707,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
@@ -3716,14 +3842,14 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3731,19 +3857,22 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3823,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3832,22 +3963,22 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>200</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
@@ -3867,19 +3998,22 @@
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
       </c>
       <c r="F58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G58" s="3">
         <v>1800</v>
@@ -3888,49 +4022,49 @@
         <v>1800</v>
       </c>
       <c r="I58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
       </c>
       <c r="N58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
       <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>100</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3953,22 +4090,22 @@
         <v>1100</v>
       </c>
       <c r="G59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
       </c>
       <c r="I59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
@@ -3977,7 +4114,7 @@
         <v>800</v>
       </c>
       <c r="O59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -3986,22 +4123,22 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>800</v>
       </c>
       <c r="V59" s="3">
         <v>800</v>
       </c>
       <c r="W59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="X59" s="3">
         <v>600</v>
@@ -4009,70 +4146,73 @@
       <c r="Y59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3100</v>
       </c>
       <c r="F60" s="3">
         <v>3100</v>
       </c>
       <c r="G60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2800</v>
       </c>
       <c r="J60" s="3">
         <v>2800</v>
       </c>
       <c r="K60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1900</v>
       </c>
       <c r="O60" s="3">
         <v>1900</v>
       </c>
       <c r="P60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
-      </c>
-      <c r="W60" s="3">
-        <v>700</v>
       </c>
       <c r="X60" s="3">
         <v>700</v>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4128,11 +4271,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4143,16 +4286,19 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>200</v>
-      </c>
-      <c r="X61" s="3">
-        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4195,35 +4341,38 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
       </c>
       <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
         <v>200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>300</v>
-      </c>
-      <c r="X62" s="3">
-        <v>200</v>
       </c>
       <c r="Y62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,64 +4590,67 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3100</v>
       </c>
       <c r="F66" s="3">
         <v>3100</v>
       </c>
       <c r="G66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2800</v>
       </c>
       <c r="J66" s="3">
         <v>2800</v>
       </c>
       <c r="K66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1900</v>
       </c>
       <c r="O66" s="3">
         <v>1900</v>
       </c>
       <c r="P66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1200</v>
       </c>
       <c r="V66" s="3">
         <v>1200</v>
@@ -4501,13 +4659,16 @@
         <v>1200</v>
       </c>
       <c r="X66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-3400</v>
       </c>
       <c r="F72" s="3">
         <v>-3400</v>
       </c>
       <c r="G72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-7500</v>
       </c>
       <c r="U72" s="3">
         <v>-7500</v>
       </c>
       <c r="V72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-6600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,13 +5284,16 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E76" s="3">
         <v>-3000</v>
@@ -5116,64 +5302,67 @@
         <v>-3000</v>
       </c>
       <c r="G76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="H76" s="3">
         <v>-2900</v>
       </c>
       <c r="I76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
       </c>
       <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-1100</v>
       </c>
       <c r="W76" s="3">
         <v>-1100</v>
       </c>
       <c r="X76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,95 +5432,101 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -5343,55 +5538,58 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5861,19 +6078,19 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5888,34 +6105,37 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,13 +6779,16 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6554,19 +6800,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -6581,14 +6827,14 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6596,19 +6842,22 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6726,11 +6978,11 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6738,15 +6990,18 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>GWSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +903,8 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,8 +980,8 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1176,28 +1196,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1220,29 +1240,32 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>2800</v>
       </c>
-      <c r="U14" s="3">
-        <v>-100</v>
-      </c>
       <c r="V14" s="3">
         <v>-100</v>
       </c>
       <c r="W14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1366,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1349,10 +1376,10 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1367,55 +1394,58 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1441,55 +1471,58 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1576,11 +1610,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1590,8 +1624,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1599,10 +1636,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1616,12 +1653,12 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1631,17 +1668,17 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
+      <c r="S21" s="3">
+        <v>-300</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
@@ -1664,8 +1701,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,8 +1733,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1717,29 +1757,32 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>600</v>
-      </c>
-      <c r="X22" s="3">
-        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1747,10 +1790,10 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1765,55 +1808,58 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3000</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2009,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1969,10 +2021,10 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1987,55 +2039,58 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3000</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2043,10 +2098,10 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -2061,55 +2116,58 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3000</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,13 +2252,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>100</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2209,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2224,25 +2285,25 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2464,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2478,8 +2548,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2487,13 +2560,13 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -2505,55 +2578,58 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3000</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2702,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2635,13 +2714,13 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2653,134 +2732,140 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3000</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2883,11 +2970,11 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2901,16 +2988,19 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3095,17 +3191,17 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -3116,8 +3212,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3173,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3196,8 +3295,8 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3205,19 +3304,22 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -3244,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -3253,13 +3355,13 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3268,19 +3370,22 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3458,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3474,15 +3585,15 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3699,11 +3819,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3717,14 +3837,17 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,19 +3920,22 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -3836,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -3845,14 +3971,14 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3860,19 +3986,22 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3">
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3957,7 +4088,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3966,22 +4097,22 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>200</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4010,13 +4144,13 @@
         <v>2000</v>
       </c>
       <c r="E58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F58" s="3">
         <v>1900</v>
       </c>
       <c r="G58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>1800</v>
@@ -4025,49 +4159,49 @@
         <v>1800</v>
       </c>
       <c r="J58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1100</v>
       </c>
       <c r="N58" s="3">
         <v>1100</v>
       </c>
       <c r="O58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>700</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
       <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
@@ -4075,13 +4209,16 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>1100</v>
@@ -4093,22 +4230,22 @@
         <v>1100</v>
       </c>
       <c r="H59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
@@ -4117,7 +4254,7 @@
         <v>800</v>
       </c>
       <c r="P59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
@@ -4126,22 +4263,22 @@
         <v>600</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
-      </c>
-      <c r="V59" s="3">
-        <v>800</v>
       </c>
       <c r="W59" s="3">
         <v>800</v>
       </c>
       <c r="X59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Y59" s="3">
         <v>600</v>
@@ -4149,73 +4286,76 @@
       <c r="Z59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3100</v>
       </c>
       <c r="G60" s="3">
         <v>3100</v>
       </c>
       <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2800</v>
       </c>
       <c r="K60" s="3">
         <v>2800</v>
       </c>
       <c r="L60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1900</v>
       </c>
       <c r="P60" s="3">
         <v>1900</v>
       </c>
       <c r="Q60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
-      </c>
-      <c r="X60" s="3">
-        <v>700</v>
       </c>
       <c r="Y60" s="3">
         <v>700</v>
@@ -4223,8 +4363,11 @@
       <c r="Z60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4274,11 +4417,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4289,16 +4432,19 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>200</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>100</v>
       </c>
       <c r="Z61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4344,35 +4490,38 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
       </c>
       <c r="W62" s="3">
+        <v>100</v>
+      </c>
+      <c r="X62" s="3">
         <v>200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>300</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>200</v>
       </c>
       <c r="Z62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,67 +4748,70 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3100</v>
       </c>
       <c r="G66" s="3">
         <v>3100</v>
       </c>
       <c r="H66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2800</v>
       </c>
       <c r="K66" s="3">
         <v>2800</v>
       </c>
       <c r="L66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1900</v>
       </c>
       <c r="P66" s="3">
         <v>1900</v>
       </c>
       <c r="Q66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1200</v>
       </c>
       <c r="W66" s="3">
         <v>1200</v>
@@ -4662,13 +4820,16 @@
         <v>1200</v>
       </c>
       <c r="Y66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-3400</v>
       </c>
       <c r="G72" s="3">
         <v>-3400</v>
       </c>
       <c r="H72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-7500</v>
       </c>
       <c r="V72" s="3">
         <v>-7500</v>
       </c>
       <c r="W72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="X72" s="3">
         <v>-6600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,8 +5470,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5296,7 +5482,7 @@
         <v>-3100</v>
       </c>
       <c r="E76" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F76" s="3">
         <v>-3000</v>
@@ -5305,64 +5491,67 @@
         <v>-3000</v>
       </c>
       <c r="H76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="I76" s="3">
         <v>-2900</v>
       </c>
       <c r="J76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-400</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1100</v>
       </c>
       <c r="X76" s="3">
         <v>-1100</v>
       </c>
       <c r="Y76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5624,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5523,13 +5718,13 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -5541,55 +5736,58 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3000</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6274,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6081,20 +6298,20 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
@@ -6108,34 +6325,37 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,17 +7025,20 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6803,19 +7049,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -6830,14 +7076,14 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6845,19 +7091,22 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7179,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6981,11 +7233,11 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6993,15 +7245,18 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
     </row>
